--- a/biology/Médecine/Friedrich_Zwinger/Friedrich_Zwinger.xlsx
+++ b/biology/Médecine/Friedrich_Zwinger/Friedrich_Zwinger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Zwinger, médecin suisse, frère de Johann Rudolf Zwinger, est né à Bâle, le 11 août 1707.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ayant achevé ses humanités et sa philosophie avec succès, il s'applique, en suivant l'avis de son père, à l'étude de la jurisprudence. Mais passionné pour les sciences naturelles, il s'y consacre en secret. À la mort de son père il est libre de suivre son chemin, il se consacre alors à la médecine. Ses progrès furent si rapides qu'après un an de cours, il fut diplômé ; il alla continuer ses cours à Heidelberg, puis à Leyde, où il se lia d'amitié avec Boerhaave et Bernard Albinus, et enfin à Paris, où il s'attacha surtout à se perfectionner dans l'anatomie.
 De retour à Bâle, en 1731, il y prit le grade de docteur et acquis une bonne réputation d'habile praticien. Il concourut vainement, en 1737, pour la chaire d'histoire et, en 1741, pour celle d'éloquence ; mais ce double échec ne nuit pas à sa réputation.
